--- a/Assignments/Titanic with Keras and Deep Learning/titanic.xlsx
+++ b/Assignments/Titanic with Keras and Deep Learning/titanic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="28800" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7362,7 +7362,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7373,13 +7373,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -7853,28 +7846,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7883,118 +7879,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8353,16 +8346,23 @@
   <dimension ref="A1:L1310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="P892" sqref="P892"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="3" width="13.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="48.4444444444444" customWidth="1"/>
-    <col min="5" max="8" width="13.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="17.4444444444444" customWidth="1"/>
-    <col min="10" max="12" width="13.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="44.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="8.55555555555556" customWidth="1"/>
+    <col min="6" max="6" width="12.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="12.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.2222222222222" customWidth="1"/>
+    <col min="9" max="9" width="20.7777777777778" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="16.1111111111111" customWidth="1"/>
+    <col min="12" max="12" width="10.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1" spans="1:12">
